--- a/menu-pranz-toplunch.xlsx
+++ b/menu-pranz-toplunch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11850"/>
+    <workbookView windowWidth="27945" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,111 +27,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
-  <si>
-    <t>Luni 17/03</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+  <si>
+    <t>Luni 07/04</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Ciorbă de pui cu orez</t>
-  </si>
-  <si>
-    <t>Zeamă</t>
-  </si>
-  <si>
-    <t>Steak de pui  în sos de lămîie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciulama de ciuperci </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cous Cous   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salată Shopski  </t>
+    <t>Zeamă cu tăieței</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supă  de linte </t>
+  </si>
+  <si>
+    <t>Piept  de pui  copt</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Bulgur  cu mix  legume</t>
+  </si>
+  <si>
+    <t>Bulgur cu mix legume</t>
+  </si>
+  <si>
+    <t>Salată Crabi</t>
   </si>
   <si>
     <t xml:space="preserve">Salată  legume </t>
   </si>
   <si>
-    <t xml:space="preserve">Marți  18/03  </t>
-  </si>
-  <si>
-    <t>Ciorbă Rădăuțeană</t>
+    <t xml:space="preserve">Marți  08/04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soleancă </t>
   </si>
   <si>
     <t>Ciorbă   de legume</t>
   </si>
   <si>
-    <t xml:space="preserve">Șold de pui BBQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colțunași cu cartofi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tăieței cu unt </t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Salată   cu crabi</t>
-  </si>
-  <si>
-    <t>Salată Vitaminoasă</t>
-  </si>
-  <si>
-    <t>Miercuri  19/03</t>
-  </si>
-  <si>
-    <t>Borș roșu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friptură de porc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasoliță </t>
-  </si>
-  <si>
-    <t>Fasoliță  cu legume</t>
-  </si>
-  <si>
-    <t>Vinegretă</t>
-  </si>
-  <si>
-    <t>Joi   20/03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciorbă  cu  perișoare </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Șnițel de pui </t>
-  </si>
-  <si>
-    <t>Cartofi cu ciuperci</t>
+    <t xml:space="preserve">Pireu de linte </t>
+  </si>
+  <si>
+    <t>Fasoliță  țărănească</t>
+  </si>
+  <si>
+    <t>Gambă de pui BBQ</t>
+  </si>
+  <si>
+    <t>Salată  sfeclă cu maioneză</t>
+  </si>
+  <si>
+    <t>Salată sfeclă cu prune uscate</t>
+  </si>
+  <si>
+    <t>Miercuri  09/04</t>
+  </si>
+  <si>
+    <t>Borș roșu + smintină</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borș roșu </t>
+  </si>
+  <si>
+    <t>Șnițel de pui in clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartofi cu păstăi verzi </t>
+  </si>
+  <si>
+    <t>Paste cu sos alb</t>
+  </si>
+  <si>
+    <t>Salată Varză noua cu ridiche si castraveți</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salată roșii cu castraveți </t>
+  </si>
+  <si>
+    <t>Joi   10/04</t>
+  </si>
+  <si>
+    <t>Ciorbă  de pui cu  orez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeamă </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carne de porc coaptă </t>
+  </si>
+  <si>
+    <t>Colțunași cu cartofi și ciuperci</t>
   </si>
   <si>
     <t xml:space="preserve">Pireu de cartofi </t>
   </si>
   <si>
-    <t>Vineri  21/03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supă de  linte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paste Bolognese </t>
-  </si>
-  <si>
-    <t>Paste cu  sos de roșii și busuioc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Salată  Olivier </t>
-  </si>
-  <si>
-    <t>Salată roșii cu castraveți</t>
+    <t xml:space="preserve">Salată Olivier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocană de vinete </t>
+  </si>
+  <si>
+    <t>Vineri  11/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciorbă cu ciuperci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciorbă   de legume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frigărui de pui </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orez cu legume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste cu sos pesto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salată Shopski </t>
+  </si>
+  <si>
+    <t>Legume coapte</t>
   </si>
 </sst>
 </file>
@@ -145,9 +166,30 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -165,30 +207,13 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,7 +370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,181 +717,187 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1401,216 +1432,223 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="21" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="7.14285714285714" customWidth="1"/>
-    <col min="2" max="3" width="40.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="41.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="38.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="2:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="21" spans="2:3">
-      <c r="B2" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="21" spans="2:3">
-      <c r="B3" s="3" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="2:3">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="2:3">
-      <c r="B5" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="21" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="2:3">
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" ht="21" spans="2:3">
-      <c r="B8" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" ht="21" spans="2:3">
-      <c r="B9" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" ht="21" spans="2:3">
-      <c r="B10" s="11" t="s">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="21" spans="2:3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="2:3">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="21" spans="2:3">
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="21" spans="2:3">
-      <c r="B14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="2:3">
-      <c r="B15" s="5" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" ht="21" spans="2:3">
-      <c r="B16" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" ht="42" spans="1:2">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="21" customHeight="1" spans="2:3">
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="21" customHeight="1" spans="2:3">
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" ht="21" spans="2:3">
-      <c r="B19" s="14" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="21" spans="2:3">
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="21" spans="2:3">
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B18" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="22" customHeight="1" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="21" spans="2:3">
-      <c r="B22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="2:3">
-      <c r="B23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" ht="21" spans="2:3">
-      <c r="B24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" ht="21" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="4"/>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="1" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>